--- a/backend/slack-hrbp/monthreports/Attendance__from_2025-02_to_2025-03.xlsx
+++ b/backend/slack-hrbp/monthreports/Attendance__from_2025-02_to_2025-03.xlsx
@@ -13,11 +13,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="89">
   <si>
     <t>User Name</t>
   </si>
   <si>
+    <t>Total Leaves</t>
+  </si>
+  <si>
+    <t>Total WFH</t>
+  </si>
+  <si>
     <t>Feb-01</t>
   </si>
   <si>
@@ -105,12 +111,18 @@
     <t>Pritam</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>Varun</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -249,13 +261,25 @@
     <t>Mar-31</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -300,7 +324,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -394,1518 +418,1626 @@
       <c r="AC1" t="s" s="0">
         <v>28</v>
       </c>
+      <c r="AD1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE2" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AD3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AE3" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE4" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE5" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE6" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE7" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE8" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE9" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE10" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE11" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE12" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE13" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE14" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE15" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE16" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE17" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AD18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AE18" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +2047,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1926,1763 +2058,1871 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O1" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P1" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q1" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R1" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T1" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U1" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V1" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W1" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="X1" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y1" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC1" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD1" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE1" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AF1" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="AG1" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="AH1" t="s" s="0">
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF2" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF3" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH3" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s" s="0">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s" s="0">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="Z4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH4" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF5" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH5" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD6" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH6" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>32</v>
-      </c>
       <c r="N7" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s" s="0">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="U7" t="s" s="0">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="V7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s" s="0">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="s" s="0">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="AB7" t="s" s="0">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="AC7" t="s" s="0">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="AD7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH7" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF8" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH8" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF9" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH9" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s" s="0">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="Y10" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF10" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH10" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF11" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH11" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s" s="0">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF12" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH12" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF13" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH13" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF14" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH14" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB15" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AC15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH15" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF16" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH16" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF17" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH17" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AB18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AE18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AF18" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="AG18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AH18" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/slack-hrbp/monthreports/Attendance__from_2025-02_to_2025-03.xlsx
+++ b/backend/slack-hrbp/monthreports/Attendance__from_2025-02_to_2025-03.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="89">
   <si>
     <t>User Name</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Shreya</t>
   </si>
   <si>
-    <t>Tejas V P</t>
-  </si>
-  <si>
     <t>Mar-01</t>
   </si>
   <si>
@@ -270,7 +267,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>11</t>
+    <t>6</t>
   </si>
   <si>
     <t>S</t>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -324,7 +324,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1850,196 +1850,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="M17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="N17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="O17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="P17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Q17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="R17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="S17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="T17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="U17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="V17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="W17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="X17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Y17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Z17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AA17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AB17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AC17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AD17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AE17" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="L18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="M18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="N18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="O18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="P18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Q18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="R18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="S18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="T18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="U18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="V18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="W18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="X18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Y18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Z18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AA18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AB18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AC18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AD18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AE18" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2047,7 +1857,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2064,97 +1874,97 @@
         <v>2</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="F1" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="G1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="H1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="I1" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="J1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="K1" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="L1" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="M1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="N1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="O1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="P1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="Q1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="R1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="S1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="T1" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="U1" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="V1" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="W1" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="X1" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="Y1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Z1" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="AA1" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AB1" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AC1" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AD1" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AE1" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AF1" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AG1" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AH1" t="s" s="0">
         <v>80</v>
-      </c>
-      <c r="AH1" t="s" s="0">
-        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -2373,73 +2183,73 @@
         <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="V4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="U4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="W4" t="s" s="0">
+      <c r="X4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="Y4" t="s" s="0">
         <v>83</v>
-      </c>
-      <c r="X4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Y4" t="s" s="0">
-        <v>84</v>
       </c>
       <c r="Z4" t="s" s="0">
         <v>33</v>
@@ -2477,7 +2287,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>33</v>
@@ -2522,7 +2332,7 @@
         <v>33</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S5" t="s" s="0">
         <v>33</v>
@@ -2578,13 +2388,13 @@
         <v>39</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>33</v>
@@ -2682,94 +2492,94 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="Q7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="V7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s" s="0">
+      <c r="Y7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="Z7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AB7" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="AC7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AD7" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="H7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="P7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="Q7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="S7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="T7" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="U7" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="V7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="X7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="Y7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="Z7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AA7" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="AB7" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="AC7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AD7" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="AE7" t="s" s="0">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="AF7" t="s" s="0">
         <v>33</v>
@@ -2893,7 +2703,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>33</v>
@@ -2938,7 +2748,7 @@
         <v>33</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s" s="0">
         <v>33</v>
@@ -2994,10 +2804,10 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>33</v>
@@ -3051,16 +2861,16 @@
         <v>36</v>
       </c>
       <c r="U10" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W10" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X10" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s" s="0">
         <v>36</v>
@@ -3205,7 +3015,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>33</v>
@@ -3241,7 +3051,7 @@
         <v>33</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s" s="0">
         <v>33</v>
@@ -3514,7 +3324,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>32</v>
@@ -3595,10 +3405,10 @@
         <v>36</v>
       </c>
       <c r="AC15" t="s" s="0">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="AD15" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AE15" t="s" s="0">
         <v>33</v>
@@ -3714,214 +3524,6 @@
         <v>33</v>
       </c>
       <c r="AH16" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="M17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="N17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="O17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="P17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Q17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="R17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="S17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="T17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="U17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="V17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="W17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="X17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Y17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Z17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AA17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AB17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AC17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AD17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AE17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AF17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AG17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AH17" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="L18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="M18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="N18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="O18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="P18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Q18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="R18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="S18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="T18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="U18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="V18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="W18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="X18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Y18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Z18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AA18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AB18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AC18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AD18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AE18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AF18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AG18" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AH18" t="s" s="0">
         <v>33</v>
       </c>
     </row>
